--- a/Covid_19_Dataset_and_References/References/101.xlsx
+++ b/Covid_19_Dataset_and_References/References/101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="55">
   <si>
     <t>Doi</t>
   </si>
@@ -208,6 +208,33 @@
   </si>
   <si>
     <t>[Philippe%Gautret%NULL%1,   Jean-Christophe%Lagier%NULL%1,   Philippe%Parola%NULL%0,   Van Thuan%Hoang%NULL%0,   Line%Meddeb%NULL%1,   Morgane%Mailhe%NULL%1,   Barbara%Doudier%NULL%1,   Johan%Courjon%NULL%1,   Valérie%Giordanengo%NULL%1,   Vera Esteves%Vieira%NULL%1,   Hervé%Tissot Dupont%NULL%1,   Stéphane%Honoré%NULL%1,   Philippe%Colson%NULL%1,   Eric%Chabrière%NULL%1,   Bernard%La Scola%NULL%1,   Jean-Marc%Rolain%NULL%1,   Philippe%Brouqui%NULL%1,   Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,    Zhujun%Cao%NULL%1,    Mingfeng%Han%NULL%0,    Zhengyan%Wang%NULL%1,    Junwen%Chen%NULL%1,    Wenjin%Sun%NULL%1,    Yaojie%Wu%NULL%1,    Wei%Xiao%NULL%0,    Shengyong%Liu%NULL%1,    Erzhen%Chen%NULL%1,    Wei%Chen%NULL%0,    Xiongbiao%Wang%NULL%1,    Jiuyong%Yang%NULL%1,    Jun%Lin%NULL%1,    Qingxia%Zhao%NULL%1,    Youqin%Yan%NULL%1,    Zhibin%Xie%NULL%1,    Dan%Li%NULL%1,    Yaofeng%Yang%NULL%1,    Leshan%Liu%NULL%1,    Jieming%Qu%NULL%0,    Guang%Ning%NULL%1,    Guochao%Shi%NULL%1,    Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,     J.% Hu%null%1,     Z.% Zhang%null%1,     S.% Jiang%null%1,     S.% Han%null%1,     D.% Yan%null%1,     R.% Zhuang%null%1,     B.% Hu%null%1,     Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,   Bjerum%Catherine%coreGivesNoEmail%1,   Chhonker%Yashpal S%coreGivesNoEmail%1,   Elizah%Arthur%coreGivesNoEmail%1,   John%Lucy N%coreGivesNoEmail%1,   King%Christopher L%coreGivesNoEmail%1,   Likia%Rhoda%coreGivesNoEmail%1,   Marks%Michael%coreGivesNoEmail%1,   Martinez%Pere Millat%coreGivesNoEmail%1,   Mitja%Oriol%coreGivesNoEmail%1,   Murry%Daryl J%coreGivesNoEmail%1,   Silus%Linda%coreGivesNoEmail%1,   Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,    Jean-Christophe%Lagier%NULL%1,    Philippe%Parola%NULL%0,    Van Thuan%Hoang%NULL%1,    Line%Meddeb%NULL%1,    Morgane%Mailhe%NULL%1,    Barbara%Doudier%NULL%1,    Johan%Courjon%NULL%1,    Valérie%Giordanengo%NULL%1,    Vera Esteves%Vieira%NULL%1,    Hervé%Tissot Dupont%NULL%1,    Stéphane%Honoré%NULL%1,    Philippe%Colson%NULL%1,    Eric%Chabrière%NULL%1,    Bernard%La Scola%NULL%1,    Jean-Marc%Rolain%NULL%1,    Philippe%Brouqui%NULL%1,    Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
   </si>
 </sst>
 </file>
@@ -516,6 +543,9 @@
       <c r="H1" t="s">
         <v>18</v>
       </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -531,7 +561,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -541,6 +571,9 @@
       </c>
       <c r="H2" t="s">
         <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -557,16 +590,19 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -583,16 +619,19 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -609,7 +648,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -619,6 +658,9 @@
       </c>
       <c r="H5" t="s">
         <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/101.xlsx
+++ b/Covid_19_Dataset_and_References/References/101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="67">
   <si>
     <t>Doi</t>
   </si>
@@ -235,6 +235,42 @@
   </si>
   <si>
     <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,     Zhujun%Cao%NULL%1,     Mingfeng%Han%NULL%0,     Zhengyan%Wang%NULL%1,     Junwen%Chen%NULL%1,     Wenjin%Sun%NULL%1,     Yaojie%Wu%NULL%1,     Wei%Xiao%NULL%1,     Shengyong%Liu%NULL%1,     Erzhen%Chen%NULL%1,     Wei%Chen%NULL%0,     Xiongbiao%Wang%NULL%1,     Jiuyong%Yang%NULL%1,     Jun%Lin%NULL%0,     Qingxia%Zhao%NULL%1,     Youqin%Yan%NULL%0,     Zhibin%Xie%NULL%1,     Dan%Li%NULL%1,     Yaofeng%Yang%NULL%1,     Leshan%Liu%NULL%1,     Jieming%Qu%NULL%0,     Guang%Ning%NULL%1,     Guochao%Shi%NULL%1,     Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,      J.% Hu%null%1,      Z.% Zhang%null%1,      S.% Jiang%null%1,      S.% Han%null%1,      D.% Yan%null%1,      R.% Zhuang%null%1,      B.% Hu%null%1,      Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,    Bjerum%Catherine%coreGivesNoEmail%1,    Chhonker%Yashpal S%coreGivesNoEmail%1,    Elizah%Arthur%coreGivesNoEmail%1,    John%Lucy N%coreGivesNoEmail%1,    King%Christopher L%coreGivesNoEmail%1,    Likia%Rhoda%coreGivesNoEmail%1,    Marks%Michael%coreGivesNoEmail%1,    Martinez%Pere Millat%coreGivesNoEmail%1,    Mitja%Oriol%coreGivesNoEmail%1,    Murry%Daryl J%coreGivesNoEmail%1,    Silus%Linda%coreGivesNoEmail%1,    Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,     Jean-Christophe%Lagier%NULL%1,     Philippe%Parola%NULL%1,     Van Thuan%Hoang%NULL%1,     Line%Meddeb%NULL%1,     Morgane%Mailhe%NULL%1,     Barbara%Doudier%NULL%1,     Johan%Courjon%NULL%1,     Valérie%Giordanengo%NULL%1,     Vera Esteves%Vieira%NULL%1,     Hervé%Tissot Dupont%NULL%1,     Stéphane%Honoré%NULL%1,     Philippe%Colson%NULL%1,     Eric%Chabrière%NULL%1,     Bernard%La Scola%NULL%1,     Jean-Marc%Rolain%NULL%1,     Philippe%Brouqui%NULL%1,     Didier%Raoult%Didier.raoult@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,      Zhujun%Cao%NULL%1,      Mingfeng%Han%NULL%0,      Zhengyan%Wang%NULL%1,      Junwen%Chen%NULL%1,      Wenjin%Sun%NULL%1,      Yaojie%Wu%NULL%1,      Wei%Xiao%NULL%1,      Shengyong%Liu%NULL%1,      Erzhen%Chen%NULL%1,      Wei%Chen%NULL%0,      Xiongbiao%Wang%NULL%1,      Jiuyong%Yang%NULL%1,      Jun%Lin%NULL%0,      Qingxia%Zhao%NULL%1,      Youqin%Yan%NULL%0,      Zhibin%Xie%NULL%1,      Dan%Li%NULL%1,      Yaofeng%Yang%NULL%1,      Leshan%Liu%NULL%1,      Jieming%Qu%NULL%0,      Guang%Ning%NULL%1,      Guochao%Shi%NULL%1,      Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,       J.% Hu%null%1,       Z.% Zhang%null%1,       S.% Jiang%null%1,       S.% Han%null%1,       D.% Yan%null%1,       R.% Zhuang%null%1,       B.% Hu%null%1,       Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,     Bjerum%Catherine%coreGivesNoEmail%1,     Chhonker%Yashpal S%coreGivesNoEmail%1,     Elizah%Arthur%coreGivesNoEmail%1,     John%Lucy N%coreGivesNoEmail%1,     King%Christopher L%coreGivesNoEmail%1,     Likia%Rhoda%coreGivesNoEmail%1,     Marks%Michael%coreGivesNoEmail%1,     Martinez%Pere Millat%coreGivesNoEmail%1,     Mitja%Oriol%coreGivesNoEmail%1,     Murry%Daryl J%coreGivesNoEmail%1,     Silus%Linda%coreGivesNoEmail%1,     Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,      Jean-Christophe%Lagier%NULL%1,      Philippe%Parola%NULL%1,      Van Thuan%Hoang%NULL%1,      Line%Meddeb%NULL%1,      Morgane%Mailhe%NULL%1,      Barbara%Doudier%NULL%1,      Johan%Courjon%NULL%1,      Valérie%Giordanengo%NULL%1,      Vera Esteves%Vieira%NULL%1,      Hervé%Tissot Dupont%NULL%1,      Stéphane%Honoré%NULL%1,      Philippe%Colson%NULL%1,      Eric%Chabrière%NULL%1,      Bernard%La Scola%NULL%1,      Jean-Marc%Rolain%NULL%1,      Philippe%Brouqui%NULL%1,      Didier%Raoult%Didier.raoult@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,       Zhujun%Cao%NULL%1,       Mingfeng%Han%NULL%0,       Zhengyan%Wang%NULL%1,       Junwen%Chen%NULL%1,       Wenjin%Sun%NULL%1,       Yaojie%Wu%NULL%1,       Wei%Xiao%NULL%1,       Shengyong%Liu%NULL%1,       Erzhen%Chen%NULL%1,       Wei%Chen%NULL%0,       Xiongbiao%Wang%NULL%1,       Jiuyong%Yang%NULL%1,       Jun%Lin%NULL%0,       Qingxia%Zhao%NULL%1,       Youqin%Yan%NULL%0,       Zhibin%Xie%NULL%1,       Dan%Li%NULL%1,       Yaofeng%Yang%NULL%1,       Leshan%Liu%NULL%1,       Jieming%Qu%NULL%0,       Guang%Ning%NULL%1,       Guochao%Shi%NULL%1,       Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,        J.% Hu%null%1,        Z.% Zhang%null%1,        S.% Jiang%null%1,        S.% Han%null%1,        D.% Yan%null%1,        R.% Zhuang%null%1,        B.% Hu%null%1,        Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,      Bjerum%Catherine%coreGivesNoEmail%1,      Chhonker%Yashpal S%coreGivesNoEmail%1,      Elizah%Arthur%coreGivesNoEmail%1,      John%Lucy N%coreGivesNoEmail%1,      King%Christopher L%coreGivesNoEmail%1,      Likia%Rhoda%coreGivesNoEmail%1,      Marks%Michael%coreGivesNoEmail%1,      Martinez%Pere Millat%coreGivesNoEmail%1,      Mitja%Oriol%coreGivesNoEmail%1,      Murry%Daryl J%coreGivesNoEmail%1,      Silus%Linda%coreGivesNoEmail%1,      Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,       Jean-Christophe%Lagier%NULL%1,       Philippe%Parola%NULL%1,       Van Thuan%Hoang%NULL%1,       Line%Meddeb%NULL%1,       Morgane%Mailhe%NULL%1,       Barbara%Doudier%NULL%1,       Johan%Courjon%NULL%1,       Valérie%Giordanengo%NULL%1,       Vera Esteves%Vieira%NULL%1,       Hervé%Tissot Dupont%NULL%1,       Stéphane%Honoré%NULL%1,       Philippe%Colson%NULL%1,       Eric%Chabrière%NULL%1,       Bernard%La Scola%NULL%1,       Jean-Marc%Rolain%NULL%1,       Philippe%Brouqui%NULL%1,       Didier%Raoult%Didier.raoult@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -561,7 +597,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -590,7 +626,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -619,13 +655,13 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>30</v>
@@ -648,7 +684,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>

--- a/Covid_19_Dataset_and_References/References/101.xlsx
+++ b/Covid_19_Dataset_and_References/References/101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="75">
   <si>
     <t>Doi</t>
   </si>
@@ -271,6 +271,30 @@
   </si>
   <si>
     <t>[Philippe%Gautret%NULL%1,       Jean-Christophe%Lagier%NULL%1,       Philippe%Parola%NULL%1,       Van Thuan%Hoang%NULL%1,       Line%Meddeb%NULL%1,       Morgane%Mailhe%NULL%1,       Barbara%Doudier%NULL%1,       Johan%Courjon%NULL%1,       Valérie%Giordanengo%NULL%1,       Vera Esteves%Vieira%NULL%1,       Hervé%Tissot Dupont%NULL%1,       Stéphane%Honoré%NULL%1,       Philippe%Colson%NULL%1,       Eric%Chabrière%NULL%1,       Bernard%La Scola%NULL%1,       Jean-Marc%Rolain%NULL%1,       Philippe%Brouqui%NULL%1,       Didier%Raoult%Didier.raoult@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,        Zhujun%Cao%NULL%1,        Mingfeng%Han%NULL%0,        Zhengyan%Wang%NULL%1,        Junwen%Chen%NULL%1,        Wenjin%Sun%NULL%1,        Yaojie%Wu%NULL%1,        Wei%Xiao%NULL%0,        Shengyong%Liu%NULL%1,        Erzhen%Chen%NULL%1,        Wei%Chen%NULL%1,        Xiongbiao%Wang%NULL%1,        Jiuyong%Yang%NULL%1,        Jun%Lin%NULL%0,        Qingxia%Zhao%NULL%1,        Youqin%Yan%NULL%0,        Zhibin%Xie%NULL%1,        Dan%Li%NULL%1,        Yaofeng%Yang%NULL%1,        Leshan%Liu%NULL%1,        Jieming%Qu%NULL%0,        Guang%Ning%NULL%1,        Guochao%Shi%NULL%1,        Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,         J.% Hu%null%1,         Z.% Zhang%null%1,         S.% Jiang%null%1,         S.% Han%null%1,         D.% Yan%null%1,         R.% Zhuang%null%1,         B.% Hu%null%1,         Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,       Bjerum%Catherine%coreGivesNoEmail%1,       Chhonker%Yashpal S%coreGivesNoEmail%1,       Elizah%Arthur%coreGivesNoEmail%1,       John%Lucy N%coreGivesNoEmail%1,       King%Christopher L%coreGivesNoEmail%1,       Likia%Rhoda%coreGivesNoEmail%1,       Marks%Michael%coreGivesNoEmail%1,       Martinez%Pere Millat%coreGivesNoEmail%1,       Mitja%Oriol%coreGivesNoEmail%1,       Murry%Daryl J%coreGivesNoEmail%1,       Silus%Linda%coreGivesNoEmail%1,       Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,        Jean-Christophe%Lagier%NULL%1,        Philippe%Parola%NULL%0,        Van Thuan%Hoang%NULL%1,        Line%Meddeb%NULL%1,        Morgane%Mailhe%NULL%1,        Barbara%Doudier%NULL%1,        Johan%Courjon%NULL%1,        Valérie%Giordanengo%NULL%1,        Vera Esteves%Vieira%NULL%1,        Hervé%Tissot Dupont%NULL%1,        Stéphane%Honoré%NULL%1,        Philippe%Colson%NULL%1,        Eric%Chabrière%NULL%1,        Bernard%La Scola%NULL%1,        Jean-Marc%Rolain%NULL%1,        Philippe%Brouqui%NULL%1,        Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,         Zhujun%Cao%NULL%1,         Mingfeng%Han%NULL%0,         Zhengyan%Wang%NULL%1,         Junwen%Chen%NULL%1,         Wenjin%Sun%NULL%1,         Yaojie%Wu%NULL%1,         Wei%Xiao%NULL%0,         Shengyong%Liu%NULL%1,         Erzhen%Chen%NULL%1,         Wei%Chen%NULL%1,         Xiongbiao%Wang%NULL%1,         Jiuyong%Yang%NULL%1,         Jun%Lin%NULL%0,         Qingxia%Zhao%NULL%1,         Youqin%Yan%NULL%0,         Zhibin%Xie%NULL%1,         Dan%Li%NULL%1,         Yaofeng%Yang%NULL%1,         Leshan%Liu%NULL%1,         Jieming%Qu%NULL%0,         Guang%Ning%NULL%1,         Guochao%Shi%NULL%1,         Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%0,          J.% Hu%null%1,          Z.% Zhang%null%1,          S.% Jiang%null%1,          S.% Han%null%1,          D.% Yan%null%1,          R.% Zhuang%null%1,          B.% Hu%null%1,          Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,        Bjerum%Catherine%coreGivesNoEmail%1,        Chhonker%Yashpal S%coreGivesNoEmail%1,        Elizah%Arthur%coreGivesNoEmail%1,        John%Lucy N%coreGivesNoEmail%1,        King%Christopher L%coreGivesNoEmail%1,        Likia%Rhoda%coreGivesNoEmail%1,        Marks%Michael%coreGivesNoEmail%1,        Martinez%Pere Millat%coreGivesNoEmail%1,        Mitja%Oriol%coreGivesNoEmail%1,        Murry%Daryl J%coreGivesNoEmail%1,        Silus%Linda%coreGivesNoEmail%1,        Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,         Jean-Christophe%Lagier%NULL%1,         Philippe%Parola%NULL%0,         Van Thuan%Hoang%NULL%1,         Line%Meddeb%NULL%1,         Morgane%Mailhe%NULL%1,         Barbara%Doudier%NULL%1,         Johan%Courjon%NULL%1,         Valérie%Giordanengo%NULL%1,         Vera Esteves%Vieira%NULL%1,         Hervé%Tissot Dupont%NULL%1,         Stéphane%Honoré%NULL%1,         Philippe%Colson%NULL%1,         Eric%Chabrière%NULL%1,         Bernard%La Scola%NULL%1,         Jean-Marc%Rolain%NULL%1,         Philippe%Brouqui%NULL%1,         Didier%Raoult%Didier.raoult@gmail.com%0]</t>
   </si>
 </sst>
 </file>
@@ -597,7 +621,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -626,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -655,7 +679,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -684,7 +708,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>

--- a/Covid_19_Dataset_and_References/References/101.xlsx
+++ b/Covid_19_Dataset_and_References/References/101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="83">
   <si>
     <t>Doi</t>
   </si>
@@ -295,6 +295,30 @@
   </si>
   <si>
     <t>[Philippe%Gautret%NULL%1,         Jean-Christophe%Lagier%NULL%1,         Philippe%Parola%NULL%0,         Van Thuan%Hoang%NULL%1,         Line%Meddeb%NULL%1,         Morgane%Mailhe%NULL%1,         Barbara%Doudier%NULL%1,         Johan%Courjon%NULL%1,         Valérie%Giordanengo%NULL%1,         Vera Esteves%Vieira%NULL%1,         Hervé%Tissot Dupont%NULL%1,         Stéphane%Honoré%NULL%1,         Philippe%Colson%NULL%1,         Eric%Chabrière%NULL%1,         Bernard%La Scola%NULL%1,         Jean-Marc%Rolain%NULL%1,         Philippe%Brouqui%NULL%1,         Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,          Zhujun%Cao%NULL%1,          Mingfeng%Han%NULL%0,          Zhengyan%Wang%NULL%1,          Junwen%Chen%NULL%1,          Wenjin%Sun%NULL%1,          Yaojie%Wu%NULL%1,          Wei%Xiao%NULL%0,          Shengyong%Liu%NULL%1,          Erzhen%Chen%NULL%1,          Wei%Chen%NULL%1,          Xiongbiao%Wang%NULL%1,          Jiuyong%Yang%NULL%1,          Jun%Lin%NULL%0,          Qingxia%Zhao%NULL%1,          Youqin%Yan%NULL%0,          Zhibin%Xie%NULL%1,          Dan%Li%NULL%1,          Yaofeng%Yang%NULL%1,          Leshan%Liu%NULL%1,          Jieming%Qu%NULL%0,          Guang%Ning%NULL%1,          Guochao%Shi%NULL%1,          Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,           J.% Hu%null%1,           Z.% Zhang%null%1,           S.% Jiang%null%1,           S.% Han%null%1,           D.% Yan%null%1,           R.% Zhuang%null%1,           B.% Hu%null%1,           Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,         Bjerum%Catherine%coreGivesNoEmail%1,         Chhonker%Yashpal S%coreGivesNoEmail%1,         Elizah%Arthur%coreGivesNoEmail%1,         John%Lucy N%coreGivesNoEmail%1,         King%Christopher L%coreGivesNoEmail%1,         Likia%Rhoda%coreGivesNoEmail%1,         Marks%Michael%coreGivesNoEmail%1,         Martinez%Pere Millat%coreGivesNoEmail%1,         Mitja%Oriol%coreGivesNoEmail%1,         Murry%Daryl J%coreGivesNoEmail%1,         Silus%Linda%coreGivesNoEmail%1,         Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,          Jean-Christophe%Lagier%NULL%1,          Philippe%Parola%NULL%0,          Van Thuan%Hoang%NULL%1,          Line%Meddeb%NULL%1,          Morgane%Mailhe%NULL%1,          Barbara%Doudier%NULL%1,          Johan%Courjon%NULL%1,          Valérie%Giordanengo%NULL%1,          Vera Esteves%Vieira%NULL%1,          Hervé%Tissot Dupont%NULL%1,          Stéphane%Honoré%NULL%1,          Philippe%Colson%NULL%1,          Eric%Chabrière%NULL%1,          Bernard%La Scola%NULL%1,          Jean-Marc%Rolain%NULL%1,          Philippe%Brouqui%NULL%1,          Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,           Zhujun%Cao%NULL%1,           Mingfeng%Han%NULL%0,           Zhengyan%Wang%NULL%1,           Junwen%Chen%NULL%1,           Wenjin%Sun%NULL%1,           Yaojie%Wu%NULL%1,           Wei%Xiao%NULL%0,           Shengyong%Liu%NULL%1,           Erzhen%Chen%NULL%1,           Wei%Chen%NULL%1,           Xiongbiao%Wang%NULL%1,           Jiuyong%Yang%NULL%1,           Jun%Lin%NULL%0,           Qingxia%Zhao%NULL%1,           Youqin%Yan%NULL%0,           Zhibin%Xie%NULL%1,           Dan%Li%NULL%1,           Yaofeng%Yang%NULL%1,           Leshan%Liu%NULL%1,           Jieming%Qu%NULL%0,           Guang%Ning%NULL%1,           Guochao%Shi%NULL%1,           Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,            J.% Hu%null%1,            Z.% Zhang%null%1,            S.% Jiang%null%1,            S.% Han%null%1,            D.% Yan%null%1,            R.% Zhuang%null%1,            B.% Hu%null%1,            Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,          Bjerum%Catherine%coreGivesNoEmail%1,          Chhonker%Yashpal S%coreGivesNoEmail%1,          Elizah%Arthur%coreGivesNoEmail%1,          John%Lucy N%coreGivesNoEmail%1,          King%Christopher L%coreGivesNoEmail%1,          Likia%Rhoda%coreGivesNoEmail%1,          Marks%Michael%coreGivesNoEmail%1,          Martinez%Pere Millat%coreGivesNoEmail%1,          Mitja%Oriol%coreGivesNoEmail%1,          Murry%Daryl J%coreGivesNoEmail%1,          Silus%Linda%coreGivesNoEmail%1,          Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,           Jean-Christophe%Lagier%NULL%1,           Philippe%Parola%NULL%0,           Van Thuan%Hoang%NULL%1,           Line%Meddeb%NULL%1,           Morgane%Mailhe%NULL%1,           Barbara%Doudier%NULL%1,           Johan%Courjon%NULL%1,           Valérie%Giordanengo%NULL%1,           Vera Esteves%Vieira%NULL%1,           Hervé%Tissot Dupont%NULL%1,           Stéphane%Honoré%NULL%1,           Philippe%Colson%NULL%1,           Eric%Chabrière%NULL%1,           Bernard%La Scola%NULL%1,           Jean-Marc%Rolain%NULL%1,           Philippe%Brouqui%NULL%1,           Didier%Raoult%Didier.raoult@gmail.com%0]</t>
   </si>
 </sst>
 </file>
@@ -621,7 +645,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -650,7 +674,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -679,7 +703,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -708,7 +732,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>

--- a/Covid_19_Dataset_and_References/References/101.xlsx
+++ b/Covid_19_Dataset_and_References/References/101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="91">
   <si>
     <t>Doi</t>
   </si>
@@ -319,6 +319,30 @@
   </si>
   <si>
     <t>[Philippe%Gautret%NULL%1,           Jean-Christophe%Lagier%NULL%1,           Philippe%Parola%NULL%0,           Van Thuan%Hoang%NULL%1,           Line%Meddeb%NULL%1,           Morgane%Mailhe%NULL%1,           Barbara%Doudier%NULL%1,           Johan%Courjon%NULL%1,           Valérie%Giordanengo%NULL%1,           Vera Esteves%Vieira%NULL%1,           Hervé%Tissot Dupont%NULL%1,           Stéphane%Honoré%NULL%1,           Philippe%Colson%NULL%1,           Eric%Chabrière%NULL%1,           Bernard%La Scola%NULL%1,           Jean-Marc%Rolain%NULL%1,           Philippe%Brouqui%NULL%1,           Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,            Zhujun%Cao%NULL%1,            Mingfeng%Han%NULL%0,            Zhengyan%Wang%NULL%1,            Junwen%Chen%NULL%1,            Wenjin%Sun%NULL%1,            Yaojie%Wu%NULL%1,            Wei%Xiao%NULL%0,            Shengyong%Liu%NULL%1,            Erzhen%Chen%NULL%1,            Wei%Chen%NULL%1,            Xiongbiao%Wang%NULL%1,            Jiuyong%Yang%NULL%1,            Jun%Lin%NULL%0,            Qingxia%Zhao%NULL%1,            Youqin%Yan%NULL%0,            Zhibin%Xie%NULL%1,            Dan%Li%NULL%1,            Yaofeng%Yang%NULL%1,            Leshan%Liu%NULL%1,            Jieming%Qu%NULL%0,            Guang%Ning%NULL%1,            Guochao%Shi%NULL%1,            Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,             J.% Hu%null%1,             Z.% Zhang%null%1,             S.% Jiang%null%1,             S.% Han%null%1,             D.% Yan%null%1,             R.% Zhuang%null%1,             B.% Hu%null%1,             Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,           Bjerum%Catherine%coreGivesNoEmail%1,           Chhonker%Yashpal S%coreGivesNoEmail%1,           Elizah%Arthur%coreGivesNoEmail%1,           John%Lucy N%coreGivesNoEmail%1,           King%Christopher L%coreGivesNoEmail%1,           Likia%Rhoda%coreGivesNoEmail%1,           Marks%Michael%coreGivesNoEmail%1,           Martinez%Pere Millat%coreGivesNoEmail%1,           Mitja%Oriol%coreGivesNoEmail%1,           Murry%Daryl J%coreGivesNoEmail%1,           Silus%Linda%coreGivesNoEmail%1,           Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,            Jean-Christophe%Lagier%NULL%1,            Philippe%Parola%NULL%0,            Van Thuan%Hoang%NULL%1,            Line%Meddeb%NULL%1,            Morgane%Mailhe%NULL%1,            Barbara%Doudier%NULL%1,            Johan%Courjon%NULL%1,            Valérie%Giordanengo%NULL%1,            Vera Esteves%Vieira%NULL%1,            Hervé%Tissot Dupont%NULL%1,            Stéphane%Honoré%NULL%1,            Philippe%Colson%NULL%1,            Eric%Chabrière%NULL%1,            Bernard%La Scola%NULL%1,            Jean-Marc%Rolain%NULL%1,            Philippe%Brouqui%NULL%1,            Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,             Zhujun%Cao%NULL%1,             Mingfeng%Han%NULL%0,             Zhengyan%Wang%NULL%1,             Junwen%Chen%NULL%1,             Wenjin%Sun%NULL%1,             Yaojie%Wu%NULL%1,             Wei%Xiao%NULL%0,             Shengyong%Liu%NULL%1,             Erzhen%Chen%NULL%1,             Wei%Chen%NULL%1,             Xiongbiao%Wang%NULL%1,             Jiuyong%Yang%NULL%1,             Jun%Lin%NULL%0,             Qingxia%Zhao%NULL%1,             Youqin%Yan%NULL%0,             Zhibin%Xie%NULL%1,             Dan%Li%NULL%1,             Yaofeng%Yang%NULL%1,             Leshan%Liu%NULL%1,             Jieming%Qu%NULL%0,             Guang%Ning%NULL%1,             Guochao%Shi%NULL%1,             Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,              J.% Hu%null%1,              Z.% Zhang%null%1,              S.% Jiang%null%1,              S.% Han%null%1,              D.% Yan%null%1,              R.% Zhuang%null%1,              B.% Hu%null%1,              Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,            Bjerum%Catherine%coreGivesNoEmail%1,            Chhonker%Yashpal S%coreGivesNoEmail%1,            Elizah%Arthur%coreGivesNoEmail%1,            John%Lucy N%coreGivesNoEmail%1,            King%Christopher L%coreGivesNoEmail%1,            Likia%Rhoda%coreGivesNoEmail%1,            Marks%Michael%coreGivesNoEmail%1,            Martinez%Pere Millat%coreGivesNoEmail%1,            Mitja%Oriol%coreGivesNoEmail%1,            Murry%Daryl J%coreGivesNoEmail%1,            Silus%Linda%coreGivesNoEmail%1,            Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,             Jean-Christophe%Lagier%NULL%1,             Philippe%Parola%NULL%0,             Van Thuan%Hoang%NULL%1,             Line%Meddeb%NULL%1,             Morgane%Mailhe%NULL%1,             Barbara%Doudier%NULL%1,             Johan%Courjon%NULL%1,             Valérie%Giordanengo%NULL%1,             Vera Esteves%Vieira%NULL%1,             Hervé%Tissot Dupont%NULL%1,             Stéphane%Honoré%NULL%1,             Philippe%Colson%NULL%1,             Eric%Chabrière%NULL%1,             Bernard%La Scola%NULL%1,             Jean-Marc%Rolain%NULL%1,             Philippe%Brouqui%NULL%1,             Didier%Raoult%Didier.raoult@gmail.com%0]</t>
   </si>
 </sst>
 </file>
@@ -645,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -674,7 +698,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -703,7 +727,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -732,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>

--- a/Covid_19_Dataset_and_References/References/101.xlsx
+++ b/Covid_19_Dataset_and_References/References/101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="96">
   <si>
     <t>Doi</t>
   </si>
@@ -343,6 +343,21 @@
   </si>
   <si>
     <t>[Philippe%Gautret%NULL%1,             Jean-Christophe%Lagier%NULL%1,             Philippe%Parola%NULL%0,             Van Thuan%Hoang%NULL%1,             Line%Meddeb%NULL%1,             Morgane%Mailhe%NULL%1,             Barbara%Doudier%NULL%1,             Johan%Courjon%NULL%1,             Valérie%Giordanengo%NULL%1,             Vera Esteves%Vieira%NULL%1,             Hervé%Tissot Dupont%NULL%1,             Stéphane%Honoré%NULL%1,             Philippe%Colson%NULL%1,             Eric%Chabrière%NULL%1,             Bernard%La Scola%NULL%1,             Jean-Marc%Rolain%NULL%1,             Philippe%Brouqui%NULL%1,             Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,              Zhujun%Cao%NULL%1,              Mingfeng%Han%NULL%0,              Zhengyan%Wang%NULL%1,              Junwen%Chen%NULL%1,              Wenjin%Sun%NULL%1,              Yaojie%Wu%NULL%1,              Wei%Xiao%NULL%0,              Shengyong%Liu%NULL%1,              Erzhen%Chen%NULL%1,              Wei%Chen%NULL%1,              Xiongbiao%Wang%NULL%1,              Jiuyong%Yang%NULL%1,              Jun%Lin%NULL%0,              Qingxia%Zhao%NULL%1,              Youqin%Yan%NULL%0,              Zhibin%Xie%NULL%1,              Dan%Li%NULL%1,              Yaofeng%Yang%NULL%1,              Leshan%Liu%NULL%1,              Jieming%Qu%NULL%0,              Guang%Ning%NULL%1,              Guochao%Shi%NULL%1,              Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,               J.% Hu%null%1,               Z.% Zhang%null%1,               S.% Jiang%null%1,               S.% Han%null%1,               D.% Yan%null%1,               R.% Zhuang%null%1,               B.% Hu%null%1,               Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,             Bjerum%Catherine%coreGivesNoEmail%1,             Chhonker%Yashpal S%coreGivesNoEmail%1,             Elizah%Arthur%coreGivesNoEmail%1,             John%Lucy N%coreGivesNoEmail%1,             King%Christopher L%coreGivesNoEmail%1,             Likia%Rhoda%coreGivesNoEmail%1,             Marks%Michael%coreGivesNoEmail%1,             Martinez%Pere Millat%coreGivesNoEmail%1,             Mitja%Oriol%coreGivesNoEmail%1,             Murry%Daryl J%coreGivesNoEmail%1,             Silus%Linda%coreGivesNoEmail%1,             Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,              Jean-Christophe%Lagier%NULL%1,              Philippe%Parola%NULL%0,              Van Thuan%Hoang%NULL%1,              Line%Meddeb%NULL%1,              Morgane%Mailhe%NULL%1,              Barbara%Doudier%NULL%1,              Johan%Courjon%NULL%1,              Valérie%Giordanengo%NULL%1,              Vera Esteves%Vieira%NULL%1,              Hervé%Tissot Dupont%NULL%1,              Stéphane%Honoré%NULL%1,              Philippe%Colson%NULL%1,              Eric%Chabrière%NULL%1,              Bernard%La Scola%NULL%1,              Jean-Marc%Rolain%NULL%1,              Philippe%Brouqui%NULL%1,              Didier%Raoult%Didier.raoult@gmail.com%0]</t>
   </si>
 </sst>
 </file>
@@ -669,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -698,13 +713,13 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
         <v>29</v>
@@ -727,7 +742,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -756,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>

--- a/Covid_19_Dataset_and_References/References/101.xlsx
+++ b/Covid_19_Dataset_and_References/References/101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="100">
   <si>
     <t>Doi</t>
   </si>
@@ -358,6 +358,18 @@
   </si>
   <si>
     <t>[Philippe%Gautret%NULL%1,              Jean-Christophe%Lagier%NULL%1,              Philippe%Parola%NULL%0,              Van Thuan%Hoang%NULL%1,              Line%Meddeb%NULL%1,              Morgane%Mailhe%NULL%1,              Barbara%Doudier%NULL%1,              Johan%Courjon%NULL%1,              Valérie%Giordanengo%NULL%1,              Vera Esteves%Vieira%NULL%1,              Hervé%Tissot Dupont%NULL%1,              Stéphane%Honoré%NULL%1,              Philippe%Colson%NULL%1,              Eric%Chabrière%NULL%1,              Bernard%La Scola%NULL%1,              Jean-Marc%Rolain%NULL%1,              Philippe%Brouqui%NULL%1,              Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,               Zhujun%Cao%NULL%1,               Mingfeng%Han%NULL%0,               Zhengyan%Wang%NULL%1,               Junwen%Chen%NULL%1,               Wenjin%Sun%NULL%1,               Yaojie%Wu%NULL%1,               Wei%Xiao%NULL%0,               Shengyong%Liu%NULL%1,               Erzhen%Chen%NULL%1,               Wei%Chen%NULL%1,               Xiongbiao%Wang%NULL%1,               Jiuyong%Yang%NULL%1,               Jun%Lin%NULL%0,               Qingxia%Zhao%NULL%1,               Youqin%Yan%NULL%0,               Zhibin%Xie%NULL%1,               Dan%Li%NULL%1,               Yaofeng%Yang%NULL%1,               Leshan%Liu%NULL%1,               Jieming%Qu%NULL%0,               Guang%Ning%NULL%1,               Guochao%Shi%NULL%1,               Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,                J.% Hu%null%1,                Z.% Zhang%null%1,                S.% Jiang%null%1,                S.% Han%null%1,                D.% Yan%null%1,                R.% Zhuang%null%1,                B.% Hu%null%1,                Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,              Bjerum%Catherine%coreGivesNoEmail%1,              Chhonker%Yashpal S%coreGivesNoEmail%1,              Elizah%Arthur%coreGivesNoEmail%1,              John%Lucy N%coreGivesNoEmail%1,              King%Christopher L%coreGivesNoEmail%1,              Likia%Rhoda%coreGivesNoEmail%1,              Marks%Michael%coreGivesNoEmail%1,              Martinez%Pere Millat%coreGivesNoEmail%1,              Mitja%Oriol%coreGivesNoEmail%1,              Murry%Daryl J%coreGivesNoEmail%1,              Silus%Linda%coreGivesNoEmail%1,              Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,               Jean-Christophe%Lagier%NULL%1,               Philippe%Parola%NULL%0,               Van Thuan%Hoang%NULL%1,               Line%Meddeb%NULL%1,               Morgane%Mailhe%NULL%1,               Barbara%Doudier%NULL%1,               Johan%Courjon%NULL%1,               Valérie%Giordanengo%NULL%1,               Vera Esteves%Vieira%NULL%1,               Hervé%Tissot Dupont%NULL%1,               Stéphane%Honoré%NULL%1,               Philippe%Colson%NULL%1,               Eric%Chabrière%NULL%1,               Bernard%La Scola%NULL%1,               Jean-Marc%Rolain%NULL%1,               Philippe%Brouqui%NULL%1,               Didier%Raoult%Didier.raoult@gmail.com%0]</t>
   </si>
 </sst>
 </file>
@@ -684,7 +696,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -713,7 +725,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -742,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -771,7 +783,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>

--- a/Covid_19_Dataset_and_References/References/101.xlsx
+++ b/Covid_19_Dataset_and_References/References/101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="108">
   <si>
     <t>Doi</t>
   </si>
@@ -370,6 +370,30 @@
   </si>
   <si>
     <t>[Philippe%Gautret%NULL%1,               Jean-Christophe%Lagier%NULL%1,               Philippe%Parola%NULL%0,               Van Thuan%Hoang%NULL%1,               Line%Meddeb%NULL%1,               Morgane%Mailhe%NULL%1,               Barbara%Doudier%NULL%1,               Johan%Courjon%NULL%1,               Valérie%Giordanengo%NULL%1,               Vera Esteves%Vieira%NULL%1,               Hervé%Tissot Dupont%NULL%1,               Stéphane%Honoré%NULL%1,               Philippe%Colson%NULL%1,               Eric%Chabrière%NULL%1,               Bernard%La Scola%NULL%1,               Jean-Marc%Rolain%NULL%1,               Philippe%Brouqui%NULL%1,               Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,                Zhujun%Cao%NULL%1,                Mingfeng%Han%NULL%0,                Zhengyan%Wang%NULL%1,                Junwen%Chen%NULL%1,                Wenjin%Sun%NULL%1,                Yaojie%Wu%NULL%1,                Wei%Xiao%NULL%0,                Shengyong%Liu%NULL%1,                Erzhen%Chen%NULL%1,                Wei%Chen%NULL%1,                Xiongbiao%Wang%NULL%1,                Jiuyong%Yang%NULL%1,                Jun%Lin%NULL%0,                Qingxia%Zhao%NULL%1,                Youqin%Yan%NULL%0,                Zhibin%Xie%NULL%1,                Dan%Li%NULL%1,                Yaofeng%Yang%NULL%1,                Leshan%Liu%NULL%1,                Jieming%Qu%NULL%0,                Guang%Ning%NULL%1,                Guochao%Shi%NULL%1,                Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,                 J.% Hu%null%1,                 Z.% Zhang%null%1,                 S.% Jiang%null%1,                 S.% Han%null%1,                 D.% Yan%null%1,                 R.% Zhuang%null%1,                 B.% Hu%null%1,                 Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,               Bjerum%Catherine%coreGivesNoEmail%1,               Chhonker%Yashpal S%coreGivesNoEmail%1,               Elizah%Arthur%coreGivesNoEmail%1,               John%Lucy N%coreGivesNoEmail%1,               King%Christopher L%coreGivesNoEmail%1,               Likia%Rhoda%coreGivesNoEmail%1,               Marks%Michael%coreGivesNoEmail%1,               Martinez%Pere Millat%coreGivesNoEmail%1,               Mitja%Oriol%coreGivesNoEmail%1,               Murry%Daryl J%coreGivesNoEmail%1,               Silus%Linda%coreGivesNoEmail%1,               Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,                Jean-Christophe%Lagier%NULL%1,                Philippe%Parola%NULL%0,                Van Thuan%Hoang%NULL%1,                Line%Meddeb%NULL%1,                Morgane%Mailhe%NULL%1,                Barbara%Doudier%NULL%1,                Johan%Courjon%NULL%1,                Valérie%Giordanengo%NULL%1,                Vera Esteves%Vieira%NULL%1,                Hervé%Tissot Dupont%NULL%1,                Stéphane%Honoré%NULL%1,                Philippe%Colson%NULL%1,                Eric%Chabrière%NULL%1,                Bernard%La Scola%NULL%1,                Jean-Marc%Rolain%NULL%1,                Philippe%Brouqui%NULL%1,                Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,                 Zhujun%Cao%NULL%1,                 Mingfeng%Han%NULL%0,                 Zhengyan%Wang%NULL%1,                 Junwen%Chen%NULL%1,                 Wenjin%Sun%NULL%1,                 Yaojie%Wu%NULL%1,                 Wei%Xiao%NULL%0,                 Shengyong%Liu%NULL%1,                 Erzhen%Chen%NULL%1,                 Wei%Chen%NULL%1,                 Xiongbiao%Wang%NULL%1,                 Jiuyong%Yang%NULL%1,                 Jun%Lin%NULL%0,                 Qingxia%Zhao%NULL%1,                 Youqin%Yan%NULL%0,                 Zhibin%Xie%NULL%1,                 Dan%Li%NULL%1,                 Yaofeng%Yang%NULL%1,                 Leshan%Liu%NULL%1,                 Jieming%Qu%NULL%0,                 Guang%Ning%NULL%1,                 Guochao%Shi%NULL%1,                 Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,                  J.% Hu%null%1,                  Z.% Zhang%null%1,                  S.% Jiang%null%1,                  S.% Han%null%1,                  D.% Yan%null%1,                  R.% Zhuang%null%1,                  B.% Hu%null%1,                  Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,                Bjerum%Catherine%coreGivesNoEmail%1,                Chhonker%Yashpal S%coreGivesNoEmail%1,                Elizah%Arthur%coreGivesNoEmail%1,                John%Lucy N%coreGivesNoEmail%1,                King%Christopher L%coreGivesNoEmail%1,                Likia%Rhoda%coreGivesNoEmail%1,                Marks%Michael%coreGivesNoEmail%1,                Martinez%Pere Millat%coreGivesNoEmail%1,                Mitja%Oriol%coreGivesNoEmail%1,                Murry%Daryl J%coreGivesNoEmail%1,                Silus%Linda%coreGivesNoEmail%1,                Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,                 Jean-Christophe%Lagier%NULL%1,                 Philippe%Parola%NULL%0,                 Van Thuan%Hoang%NULL%1,                 Line%Meddeb%NULL%1,                 Morgane%Mailhe%NULL%1,                 Barbara%Doudier%NULL%1,                 Johan%Courjon%NULL%1,                 Valérie%Giordanengo%NULL%1,                 Vera Esteves%Vieira%NULL%1,                 Hervé%Tissot Dupont%NULL%1,                 Stéphane%Honoré%NULL%1,                 Philippe%Colson%NULL%1,                 Eric%Chabrière%NULL%1,                 Bernard%La Scola%NULL%1,                 Jean-Marc%Rolain%NULL%1,                 Philippe%Brouqui%NULL%1,                 Didier%Raoult%Didier.raoult@gmail.com%0]</t>
   </si>
 </sst>
 </file>
@@ -696,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -725,7 +749,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -754,7 +778,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -783,7 +807,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>

--- a/Covid_19_Dataset_and_References/References/101.xlsx
+++ b/Covid_19_Dataset_and_References/References/101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="112">
   <si>
     <t>Doi</t>
   </si>
@@ -394,6 +394,18 @@
   </si>
   <si>
     <t>[Philippe%Gautret%NULL%1,                 Jean-Christophe%Lagier%NULL%1,                 Philippe%Parola%NULL%0,                 Van Thuan%Hoang%NULL%1,                 Line%Meddeb%NULL%1,                 Morgane%Mailhe%NULL%1,                 Barbara%Doudier%NULL%1,                 Johan%Courjon%NULL%1,                 Valérie%Giordanengo%NULL%1,                 Vera Esteves%Vieira%NULL%1,                 Hervé%Tissot Dupont%NULL%1,                 Stéphane%Honoré%NULL%1,                 Philippe%Colson%NULL%1,                 Eric%Chabrière%NULL%1,                 Bernard%La Scola%NULL%1,                 Jean-Marc%Rolain%NULL%1,                 Philippe%Brouqui%NULL%1,                 Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,                  Zhujun%Cao%NULL%1,                  Mingfeng%Han%NULL%0,                  Zhengyan%Wang%NULL%1,                  Junwen%Chen%NULL%1,                  Wenjin%Sun%NULL%1,                  Yaojie%Wu%NULL%1,                  Wei%Xiao%NULL%0,                  Shengyong%Liu%NULL%1,                  Erzhen%Chen%NULL%1,                  Wei%Chen%NULL%1,                  Xiongbiao%Wang%NULL%1,                  Jiuyong%Yang%NULL%1,                  Jun%Lin%NULL%0,                  Qingxia%Zhao%NULL%1,                  Youqin%Yan%NULL%0,                  Zhibin%Xie%NULL%1,                  Dan%Li%NULL%1,                  Yaofeng%Yang%NULL%1,                  Leshan%Liu%NULL%1,                  Jieming%Qu%NULL%0,                  Guang%Ning%NULL%1,                  Guochao%Shi%NULL%1,                  Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,                   J.% Hu%null%1,                   Z.% Zhang%null%1,                   S.% Jiang%null%1,                   S.% Han%null%1,                   D.% Yan%null%1,                   R.% Zhuang%null%1,                   B.% Hu%null%1,                   Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,                 Bjerum%Catherine%coreGivesNoEmail%1,                 Chhonker%Yashpal S%coreGivesNoEmail%1,                 Elizah%Arthur%coreGivesNoEmail%1,                 John%Lucy N%coreGivesNoEmail%1,                 King%Christopher L%coreGivesNoEmail%1,                 Likia%Rhoda%coreGivesNoEmail%1,                 Marks%Michael%coreGivesNoEmail%1,                 Martinez%Pere Millat%coreGivesNoEmail%1,                 Mitja%Oriol%coreGivesNoEmail%1,                 Murry%Daryl J%coreGivesNoEmail%1,                 Silus%Linda%coreGivesNoEmail%1,                 Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,                  Jean-Christophe%Lagier%NULL%1,                  Philippe%Parola%NULL%0,                  Van Thuan%Hoang%NULL%1,                  Line%Meddeb%NULL%1,                  Morgane%Mailhe%NULL%1,                  Barbara%Doudier%NULL%1,                  Johan%Courjon%NULL%1,                  Valérie%Giordanengo%NULL%1,                  Vera Esteves%Vieira%NULL%1,                  Hervé%Tissot Dupont%NULL%1,                  Stéphane%Honoré%NULL%1,                  Philippe%Colson%NULL%1,                  Eric%Chabrière%NULL%1,                  Bernard%La Scola%NULL%1,                  Jean-Marc%Rolain%NULL%1,                  Philippe%Brouqui%NULL%1,                  Didier%Raoult%Didier.raoult@gmail.com%0]</t>
   </si>
 </sst>
 </file>
@@ -720,7 +732,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -749,7 +761,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -778,7 +790,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -807,7 +819,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>

--- a/Covid_19_Dataset_and_References/References/101.xlsx
+++ b/Covid_19_Dataset_and_References/References/101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="120">
   <si>
     <t>Doi</t>
   </si>
@@ -406,6 +406,30 @@
   </si>
   <si>
     <t>[Philippe%Gautret%NULL%1,                  Jean-Christophe%Lagier%NULL%1,                  Philippe%Parola%NULL%0,                  Van Thuan%Hoang%NULL%1,                  Line%Meddeb%NULL%1,                  Morgane%Mailhe%NULL%1,                  Barbara%Doudier%NULL%1,                  Johan%Courjon%NULL%1,                  Valérie%Giordanengo%NULL%1,                  Vera Esteves%Vieira%NULL%1,                  Hervé%Tissot Dupont%NULL%1,                  Stéphane%Honoré%NULL%1,                  Philippe%Colson%NULL%1,                  Eric%Chabrière%NULL%1,                  Bernard%La Scola%NULL%1,                  Jean-Marc%Rolain%NULL%1,                  Philippe%Brouqui%NULL%1,                  Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,                   Zhujun%Cao%NULL%1,                   Mingfeng%Han%NULL%0,                   Zhengyan%Wang%NULL%1,                   Junwen%Chen%NULL%1,                   Wenjin%Sun%NULL%1,                   Yaojie%Wu%NULL%1,                   Wei%Xiao%NULL%0,                   Shengyong%Liu%NULL%1,                   Erzhen%Chen%NULL%1,                   Wei%Chen%NULL%1,                   Xiongbiao%Wang%NULL%1,                   Jiuyong%Yang%NULL%1,                   Jun%Lin%NULL%0,                   Qingxia%Zhao%NULL%1,                   Youqin%Yan%NULL%0,                   Zhibin%Xie%NULL%1,                   Dan%Li%NULL%1,                   Yaofeng%Yang%NULL%1,                   Leshan%Liu%NULL%1,                   Jieming%Qu%NULL%0,                   Guang%Ning%NULL%1,                   Guochao%Shi%NULL%1,                   Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,                    J.% Hu%null%1,                    Z.% Zhang%null%1,                    S.% Jiang%null%1,                    S.% Han%null%1,                    D.% Yan%null%1,                    R.% Zhuang%null%1,                    B.% Hu%null%1,                    Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,                  Bjerum%Catherine%coreGivesNoEmail%1,                  Chhonker%Yashpal S%coreGivesNoEmail%1,                  Elizah%Arthur%coreGivesNoEmail%1,                  John%Lucy N%coreGivesNoEmail%1,                  King%Christopher L%coreGivesNoEmail%1,                  Likia%Rhoda%coreGivesNoEmail%1,                  Marks%Michael%coreGivesNoEmail%1,                  Martinez%Pere Millat%coreGivesNoEmail%1,                  Mitja%Oriol%coreGivesNoEmail%1,                  Murry%Daryl J%coreGivesNoEmail%1,                  Silus%Linda%coreGivesNoEmail%1,                  Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,                   Jean-Christophe%Lagier%NULL%1,                   Philippe%Parola%NULL%0,                   Van Thuan%Hoang%NULL%1,                   Line%Meddeb%NULL%1,                   Morgane%Mailhe%NULL%1,                   Barbara%Doudier%NULL%1,                   Johan%Courjon%NULL%1,                   Valérie%Giordanengo%NULL%1,                   Vera Esteves%Vieira%NULL%1,                   Hervé%Tissot Dupont%NULL%1,                   Stéphane%Honoré%NULL%1,                   Philippe%Colson%NULL%1,                   Eric%Chabrière%NULL%1,                   Bernard%La Scola%NULL%1,                   Jean-Marc%Rolain%NULL%1,                   Philippe%Brouqui%NULL%1,                   Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
   </si>
 </sst>
 </file>
@@ -732,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -744,7 +768,7 @@
         <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +785,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -773,7 +797,7 @@
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +814,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -802,7 +826,7 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5">
@@ -819,7 +843,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -831,7 +855,7 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/101.xlsx
+++ b/Covid_19_Dataset_and_References/References/101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="124">
   <si>
     <t>Doi</t>
   </si>
@@ -430,6 +430,18 @@
   </si>
   <si>
     <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,                    Zhujun%Cao%NULL%1,                    Mingfeng%Han%NULL%0,                    Zhengyan%Wang%NULL%1,                    Junwen%Chen%NULL%1,                    Wenjin%Sun%NULL%1,                    Yaojie%Wu%NULL%1,                    Wei%Xiao%NULL%0,                    Shengyong%Liu%NULL%1,                    Erzhen%Chen%NULL%1,                    Wei%Chen%NULL%1,                    Xiongbiao%Wang%NULL%1,                    Jiuyong%Yang%NULL%1,                    Jun%Lin%NULL%0,                    Qingxia%Zhao%NULL%1,                    Youqin%Yan%NULL%0,                    Zhibin%Xie%NULL%1,                    Dan%Li%NULL%1,                    Yaofeng%Yang%NULL%1,                    Leshan%Liu%NULL%1,                    Jieming%Qu%NULL%0,                    Guang%Ning%NULL%1,                    Guochao%Shi%NULL%1,                    Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%2,                     J.% Hu%null%1,                     Z.% Zhang%null%1,                     S.% Jiang%null%1,                     S.% Han%null%1,                     D.% Yan%null%1,                     R.% Zhuang%null%1,                     B.% Hu%null%1,                     Z. % Zhang%null%1,  Z.%Chen%null%0,  J.% Hu%null%0,  Z.% Zhang%null%1,  S.% Jiang%null%1,  S.% Han%null%1,  D.% Yan%null%1,  R.% Zhuang%null%1,  B.% Hu%null%1,  Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,                   Bjerum%Catherine%coreGivesNoEmail%1,                   Chhonker%Yashpal S%coreGivesNoEmail%1,                   Elizah%Arthur%coreGivesNoEmail%1,                   John%Lucy N%coreGivesNoEmail%1,                   King%Christopher L%coreGivesNoEmail%1,                   Likia%Rhoda%coreGivesNoEmail%1,                   Marks%Michael%coreGivesNoEmail%1,                   Martinez%Pere Millat%coreGivesNoEmail%1,                   Mitja%Oriol%coreGivesNoEmail%1,                   Murry%Daryl J%coreGivesNoEmail%1,                   Silus%Linda%coreGivesNoEmail%1,                   Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,                    Jean-Christophe%Lagier%NULL%1,                    Philippe%Parola%NULL%0,                    Van Thuan%Hoang%NULL%1,                    Line%Meddeb%NULL%1,                    Morgane%Mailhe%NULL%1,                    Barbara%Doudier%NULL%1,                    Johan%Courjon%NULL%1,                    Valérie%Giordanengo%NULL%1,                    Vera Esteves%Vieira%NULL%1,                    Hervé%Tissot Dupont%NULL%1,                    Stéphane%Honoré%NULL%1,                    Philippe%Colson%NULL%1,                    Eric%Chabrière%NULL%1,                    Bernard%La Scola%NULL%1,                    Jean-Marc%Rolain%NULL%1,                    Philippe%Brouqui%NULL%1,                    Didier%Raoult%Didier.raoult@gmail.com%0]</t>
   </si>
 </sst>
 </file>
@@ -756,7 +768,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -785,7 +797,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -814,7 +826,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -843,7 +855,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>

--- a/Covid_19_Dataset_and_References/References/101.xlsx
+++ b/Covid_19_Dataset_and_References/References/101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="145">
   <si>
     <t>Doi</t>
   </si>
@@ -442,6 +442,69 @@
   </si>
   <si>
     <t>[Philippe%Gautret%NULL%1,                    Jean-Christophe%Lagier%NULL%1,                    Philippe%Parola%NULL%0,                    Van Thuan%Hoang%NULL%1,                    Line%Meddeb%NULL%1,                    Morgane%Mailhe%NULL%1,                    Barbara%Doudier%NULL%1,                    Johan%Courjon%NULL%1,                    Valérie%Giordanengo%NULL%1,                    Vera Esteves%Vieira%NULL%1,                    Hervé%Tissot Dupont%NULL%1,                    Stéphane%Honoré%NULL%1,                    Philippe%Colson%NULL%1,                    Eric%Chabrière%NULL%1,                    Bernard%La Scola%NULL%1,                    Jean-Marc%Rolain%NULL%1,                    Philippe%Brouqui%NULL%1,                    Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,                     Zhujun%Cao%NULL%1,                     Mingfeng%Han%NULL%0,                     Zhengyan%Wang%NULL%1,                     Junwen%Chen%NULL%1,                     Wenjin%Sun%NULL%1,                     Yaojie%Wu%NULL%1,                     Wei%Xiao%NULL%0,                     Shengyong%Liu%NULL%1,                     Erzhen%Chen%NULL%1,                     Wei%Chen%NULL%1,                     Xiongbiao%Wang%NULL%1,                     Jiuyong%Yang%NULL%1,                     Jun%Lin%NULL%0,                     Qingxia%Zhao%NULL%1,                     Youqin%Yan%NULL%0,                     Zhibin%Xie%NULL%1,                     Dan%Li%NULL%1,                     Yaofeng%Yang%NULL%1,                     Leshan%Liu%NULL%1,                     Jieming%Qu%NULL%0,                     Guang%Ning%NULL%1,                     Guochao%Shi%NULL%1,                     Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,                      J.% Hu%null%1,                      Z.% Zhang%null%1,                      S.% Jiang%null%1,                      S.% Han%null%1,                      D.% Yan%null%1,                      R.% Zhuang%null%1,                      B.% Hu%null%1,                      Z. % Zhang%null%1,   Z.%Chen%null%1,   J.% Hu%null%0,   Z.% Zhang%null%1,   S.% Jiang%null%1,   S.% Han%null%1,   D.% Yan%null%1,   R.% Zhuang%null%1,   B.% Hu%null%1,   Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,                    Bjerum%Catherine%coreGivesNoEmail%1,                    Chhonker%Yashpal S%coreGivesNoEmail%1,                    Elizah%Arthur%coreGivesNoEmail%1,                    John%Lucy N%coreGivesNoEmail%1,                    King%Christopher L%coreGivesNoEmail%1,                    Likia%Rhoda%coreGivesNoEmail%1,                    Marks%Michael%coreGivesNoEmail%1,                    Martinez%Pere Millat%coreGivesNoEmail%1,                    Mitja%Oriol%coreGivesNoEmail%1,                    Murry%Daryl J%coreGivesNoEmail%1,                    Silus%Linda%coreGivesNoEmail%1,                    Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,                     Jean-Christophe%Lagier%NULL%1,                     Philippe%Parola%NULL%0,                     Van Thuan%Hoang%NULL%1,                     Line%Meddeb%NULL%1,                     Morgane%Mailhe%NULL%1,                     Barbara%Doudier%NULL%1,                     Johan%Courjon%NULL%1,                     Valérie%Giordanengo%NULL%1,                     Vera Esteves%Vieira%NULL%1,                     Hervé%Tissot Dupont%NULL%1,                     Stéphane%Honoré%NULL%1,                     Philippe%Colson%NULL%1,                     Eric%Chabrière%NULL%1,                     Bernard%La Scola%NULL%1,                     Jean-Marc%Rolain%NULL%1,                     Philippe%Brouqui%NULL%1,                     Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,                      Zhujun%Cao%NULL%1,                      Mingfeng%Han%NULL%0,                      Zhengyan%Wang%NULL%1,                      Junwen%Chen%NULL%1,                      Wenjin%Sun%NULL%1,                      Yaojie%Wu%NULL%1,                      Wei%Xiao%NULL%0,                      Shengyong%Liu%NULL%1,                      Erzhen%Chen%NULL%1,                      Wei%Chen%NULL%1,                      Xiongbiao%Wang%NULL%1,                      Jiuyong%Yang%NULL%1,                      Jun%Lin%NULL%0,                      Qingxia%Zhao%NULL%1,                      Youqin%Yan%NULL%0,                      Zhibin%Xie%NULL%1,                      Dan%Li%NULL%1,                      Yaofeng%Yang%NULL%1,                      Leshan%Liu%NULL%1,                      Jieming%Qu%NULL%0,                      Guang%Ning%NULL%1,                      Guochao%Shi%NULL%1,                      Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%0,                       J.% Hu%null%1,                       Z.% Zhang%null%1,                       S.% Jiang%null%1,                       S.% Han%null%1,                       D.% Yan%null%1,                       R.% Zhuang%null%1,                       B.% Hu%null%1,                       Z. % Zhang%null%1,    Z.%Chen%null%1,    J.% Hu%null%0,    Z.% Zhang%null%1,    S.% Jiang%null%1,    S.% Han%null%1,    D.% Yan%null%1,    R.% Zhuang%null%1,    B.% Hu%null%1,    Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,                     Bjerum%Catherine%coreGivesNoEmail%1,                     Chhonker%Yashpal S%coreGivesNoEmail%1,                     Elizah%Arthur%coreGivesNoEmail%1,                     John%Lucy N%coreGivesNoEmail%1,                     King%Christopher L%coreGivesNoEmail%1,                     Likia%Rhoda%coreGivesNoEmail%1,                     Marks%Michael%coreGivesNoEmail%1,                     Martinez%Pere Millat%coreGivesNoEmail%1,                     Mitja%Oriol%coreGivesNoEmail%1,                     Murry%Daryl J%coreGivesNoEmail%1,                     Silus%Linda%coreGivesNoEmail%1,                     Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,                      Jean-Christophe%Lagier%NULL%1,                      Philippe%Parola%NULL%0,                      Van Thuan%Hoang%NULL%1,                      Line%Meddeb%NULL%1,                      Morgane%Mailhe%NULL%1,                      Barbara%Doudier%NULL%1,                      Johan%Courjon%NULL%1,                      Valérie%Giordanengo%NULL%1,                      Vera Esteves%Vieira%NULL%1,                      Hervé%Tissot Dupont%NULL%1,                      Stéphane%Honoré%NULL%1,                      Philippe%Colson%NULL%1,                      Eric%Chabrière%NULL%1,                      Bernard%La Scola%NULL%1,                      Jean-Marc%Rolain%NULL%1,                      Philippe%Brouqui%NULL%1,                      Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,                       Zhujun%Cao%NULL%1,                       Mingfeng%Han%NULL%0,                       Zhengyan%Wang%NULL%1,                       Junwen%Chen%NULL%1,                       Wenjin%Sun%NULL%1,                       Yaojie%Wu%NULL%1,                       Wei%Xiao%NULL%0,                       Shengyong%Liu%NULL%1,                       Erzhen%Chen%NULL%1,                       Wei%Chen%NULL%1,                       Xiongbiao%Wang%NULL%1,                       Jiuyong%Yang%NULL%1,                       Jun%Lin%NULL%0,                       Qingxia%Zhao%NULL%1,                       Youqin%Yan%NULL%0,                       Zhibin%Xie%NULL%1,                       Dan%Li%NULL%1,                       Yaofeng%Yang%NULL%1,                       Leshan%Liu%NULL%1,                       Jieming%Qu%NULL%0,                       Guang%Ning%NULL%1,                       Guochao%Shi%NULL%1,                       Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,                        J.% Hu%null%1,                        Z.% Zhang%null%1,                        S.% Jiang%null%1,                        S.% Han%null%1,                        D.% Yan%null%1,                        R.% Zhuang%null%1,                        B.% Hu%null%1,                        Z. % Zhang%null%1,     Z.%Chen%null%1,     J.% Hu%null%0,     Z.% Zhang%null%1,     S.% Jiang%null%1,     S.% Han%null%1,     D.% Yan%null%1,     R.% Zhuang%null%1,     B.% Hu%null%1,     Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,                      Bjerum%Catherine%coreGivesNoEmail%1,                      Chhonker%Yashpal S%coreGivesNoEmail%1,                      Elizah%Arthur%coreGivesNoEmail%1,                      John%Lucy N%coreGivesNoEmail%1,                      King%Christopher L%coreGivesNoEmail%1,                      Likia%Rhoda%coreGivesNoEmail%1,                      Marks%Michael%coreGivesNoEmail%1,                      Martinez%Pere Millat%coreGivesNoEmail%1,                      Mitja%Oriol%coreGivesNoEmail%1,                      Murry%Daryl J%coreGivesNoEmail%1,                      Silus%Linda%coreGivesNoEmail%1,                      Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,                       Jean-Christophe%Lagier%NULL%1,                       Philippe%Parola%NULL%0,                       Van Thuan%Hoang%NULL%1,                       Line%Meddeb%NULL%1,                       Morgane%Mailhe%NULL%1,                       Barbara%Doudier%NULL%1,                       Johan%Courjon%NULL%1,                       Valérie%Giordanengo%NULL%1,                       Vera Esteves%Vieira%NULL%1,                       Hervé%Tissot Dupont%NULL%1,                       Stéphane%Honoré%NULL%1,                       Philippe%Colson%NULL%1,                       Eric%Chabrière%NULL%1,                       Bernard%La Scola%NULL%1,                       Jean-Marc%Rolain%NULL%1,                       Philippe%Brouqui%NULL%1,                       Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,                        Zhujun%Cao%NULL%1,                        Mingfeng%Han%NULL%0,                        Zhengyan%Wang%NULL%1,                        Junwen%Chen%NULL%1,                        Wenjin%Sun%NULL%1,                        Yaojie%Wu%NULL%1,                        Wei%Xiao%NULL%0,                        Shengyong%Liu%NULL%1,                        Erzhen%Chen%NULL%1,                        Wei%Chen%NULL%1,                        Xiongbiao%Wang%NULL%1,                        Jiuyong%Yang%NULL%1,                        Jun%Lin%NULL%0,                        Qingxia%Zhao%NULL%1,                        Youqin%Yan%NULL%0,                        Zhibin%Xie%NULL%1,                        Dan%Li%NULL%1,                        Yaofeng%Yang%NULL%1,                        Leshan%Liu%NULL%1,                        Jieming%Qu%NULL%0,                        Guang%Ning%NULL%1,                        Guochao%Shi%NULL%1,                        Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,                         J.% Hu%null%1,                         Z.% Zhang%null%1,                         S.% Jiang%null%1,                         S.% Han%null%1,                         D.% Yan%null%1,                         R.% Zhuang%null%1,                         B.% Hu%null%1,                         Z. % Zhang%null%1,      Z.%Chen%null%1,      J.% Hu%null%0,      Z.% Zhang%null%1,      S.% Jiang%null%1,      S.% Han%null%1,      D.% Yan%null%1,      R.% Zhuang%null%1,      B.% Hu%null%1,      Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,                       Bjerum%Catherine%coreGivesNoEmail%1,                       Chhonker%Yashpal S%coreGivesNoEmail%1,                       Elizah%Arthur%coreGivesNoEmail%1,                       John%Lucy N%coreGivesNoEmail%1,                       King%Christopher L%coreGivesNoEmail%1,                       Likia%Rhoda%coreGivesNoEmail%1,                       Marks%Michael%coreGivesNoEmail%1,                       Martinez%Pere Millat%coreGivesNoEmail%1,                       Mitja%Oriol%coreGivesNoEmail%1,                       Murry%Daryl J%coreGivesNoEmail%1,                       Silus%Linda%coreGivesNoEmail%1,                       Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,                        Jean-Christophe%Lagier%NULL%1,                        Philippe%Parola%NULL%0,                        Van Thuan%Hoang%NULL%1,                        Line%Meddeb%NULL%1,                        Morgane%Mailhe%NULL%1,                        Barbara%Doudier%NULL%1,                        Johan%Courjon%NULL%1,                        Valérie%Giordanengo%NULL%1,                        Vera Esteves%Vieira%NULL%1,                        Hervé%Tissot Dupont%NULL%1,                        Stéphane%Honoré%NULL%1,                        Philippe%Colson%NULL%1,                        Eric%Chabrière%NULL%1,                        Bernard%La Scola%NULL%1,                        Jean-Marc%Rolain%NULL%1,                        Philippe%Brouqui%NULL%1,                        Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,                         Zhujun%Cao%NULL%1,                         Mingfeng%Han%NULL%0,                         Zhengyan%Wang%NULL%1,                         Junwen%Chen%NULL%1,                         Wenjin%Sun%NULL%1,                         Yaojie%Wu%NULL%1,                         Wei%Xiao%NULL%0,                         Shengyong%Liu%NULL%1,                         Erzhen%Chen%NULL%1,                         Wei%Chen%NULL%1,                         Xiongbiao%Wang%NULL%1,                         Jiuyong%Yang%NULL%1,                         Jun%Lin%NULL%0,                         Qingxia%Zhao%NULL%1,                         Youqin%Yan%NULL%0,                         Zhibin%Xie%NULL%1,                         Dan%Li%NULL%1,                         Yaofeng%Yang%NULL%1,                         Leshan%Liu%NULL%1,                         Jieming%Qu%NULL%0,                         Guang%Ning%NULL%1,                         Guochao%Shi%NULL%1,                         Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,                          J.% Hu%null%1,                          Z.% Zhang%null%1,                          S.% Jiang%null%1,                          S.% Han%null%1,                          D.% Yan%null%1,                          R.% Zhuang%null%1,                          B.% Hu%null%1,                          Z. % Zhang%null%1,       Z.%Chen%null%1,       J.% Hu%null%0,       Z.% Zhang%null%1,       S.% Jiang%null%1,       S.% Han%null%1,       D.% Yan%null%1,       R.% Zhuang%null%1,       B.% Hu%null%1,       Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,                        Bjerum%Catherine%coreGivesNoEmail%1,                        Chhonker%Yashpal S%coreGivesNoEmail%1,                        Elizah%Arthur%coreGivesNoEmail%1,                        John%Lucy N%coreGivesNoEmail%1,                        King%Christopher L%coreGivesNoEmail%1,                        Likia%Rhoda%coreGivesNoEmail%1,                        Marks%Michael%coreGivesNoEmail%1,                        Martinez%Pere Millat%coreGivesNoEmail%1,                        Mitja%Oriol%coreGivesNoEmail%1,                        Murry%Daryl J%coreGivesNoEmail%1,                        Silus%Linda%coreGivesNoEmail%1,                        Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,                         Jean-Christophe%Lagier%NULL%1,                         Philippe%Parola%NULL%0,                         Van Thuan%Hoang%NULL%1,                         Line%Meddeb%NULL%1,                         Morgane%Mailhe%NULL%1,                         Barbara%Doudier%NULL%1,                         Johan%Courjon%NULL%1,                         Valérie%Giordanengo%NULL%1,                         Vera Esteves%Vieira%NULL%1,                         Hervé%Tissot Dupont%NULL%1,                         Stéphane%Honoré%NULL%1,                         Philippe%Colson%NULL%1,                         Eric%Chabrière%NULL%1,                         Bernard%La Scola%NULL%1,                         Jean-Marc%Rolain%NULL%1,                         Philippe%Brouqui%NULL%1,                         Didier%Raoult%Didier.raoult@gmail.com%0]</t>
   </si>
 </sst>
 </file>
@@ -753,6 +816,9 @@
       <c r="I1" t="s">
         <v>46</v>
       </c>
+      <c r="J1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -768,7 +834,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -781,6 +847,9 @@
       </c>
       <c r="I2" t="s">
         <v>113</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -797,7 +866,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -810,6 +879,9 @@
       </c>
       <c r="I3" t="s">
         <v>115</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +898,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -839,6 +911,9 @@
       </c>
       <c r="I4" t="s">
         <v>117</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -855,7 +930,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -868,6 +943,9 @@
       </c>
       <c r="I5" t="s">
         <v>119</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/101.xlsx
+++ b/Covid_19_Dataset_and_References/References/101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="153">
   <si>
     <t>Doi</t>
   </si>
@@ -505,6 +505,30 @@
   </si>
   <si>
     <t>[Philippe%Gautret%NULL%1,                         Jean-Christophe%Lagier%NULL%1,                         Philippe%Parola%NULL%0,                         Van Thuan%Hoang%NULL%1,                         Line%Meddeb%NULL%1,                         Morgane%Mailhe%NULL%1,                         Barbara%Doudier%NULL%1,                         Johan%Courjon%NULL%1,                         Valérie%Giordanengo%NULL%1,                         Vera Esteves%Vieira%NULL%1,                         Hervé%Tissot Dupont%NULL%1,                         Stéphane%Honoré%NULL%1,                         Philippe%Colson%NULL%1,                         Eric%Chabrière%NULL%1,                         Bernard%La Scola%NULL%1,                         Jean-Marc%Rolain%NULL%1,                         Philippe%Brouqui%NULL%1,                         Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,                          Zhujun%Cao%NULL%1,                          Mingfeng%Han%NULL%0,                          Zhengyan%Wang%NULL%1,                          Junwen%Chen%NULL%1,                          Wenjin%Sun%NULL%1,                          Yaojie%Wu%NULL%1,                          Wei%Xiao%NULL%0,                          Shengyong%Liu%NULL%1,                          Erzhen%Chen%NULL%1,                          Wei%Chen%NULL%1,                          Xiongbiao%Wang%NULL%1,                          Jiuyong%Yang%NULL%1,                          Jun%Lin%NULL%0,                          Qingxia%Zhao%NULL%1,                          Youqin%Yan%NULL%0,                          Zhibin%Xie%NULL%1,                          Dan%Li%NULL%1,                          Yaofeng%Yang%NULL%1,                          Leshan%Liu%NULL%1,                          Jieming%Qu%NULL%0,                          Guang%Ning%NULL%1,                          Guochao%Shi%NULL%1,                          Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,                           J.% Hu%null%1,                           Z.% Zhang%null%1,                           S.% Jiang%null%1,                           S.% Han%null%1,                           D.% Yan%null%1,                           R.% Zhuang%null%1,                           B.% Hu%null%1,                           Z. % Zhang%null%1,        Z.%Chen%null%1,        J.% Hu%null%0,        Z.% Zhang%null%1,        S.% Jiang%null%1,        S.% Han%null%1,        D.% Yan%null%1,        R.% Zhuang%null%1,        B.% Hu%null%1,        Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,                         Bjerum%Catherine%coreGivesNoEmail%1,                         Chhonker%Yashpal S%coreGivesNoEmail%1,                         Elizah%Arthur%coreGivesNoEmail%1,                         John%Lucy N%coreGivesNoEmail%1,                         King%Christopher L%coreGivesNoEmail%1,                         Likia%Rhoda%coreGivesNoEmail%1,                         Marks%Michael%coreGivesNoEmail%1,                         Martinez%Pere Millat%coreGivesNoEmail%1,                         Mitja%Oriol%coreGivesNoEmail%1,                         Murry%Daryl J%coreGivesNoEmail%1,                         Silus%Linda%coreGivesNoEmail%1,                         Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,                          Jean-Christophe%Lagier%NULL%1,                          Philippe%Parola%NULL%0,                          Van Thuan%Hoang%NULL%1,                          Line%Meddeb%NULL%1,                          Morgane%Mailhe%NULL%1,                          Barbara%Doudier%NULL%1,                          Johan%Courjon%NULL%1,                          Valérie%Giordanengo%NULL%1,                          Vera Esteves%Vieira%NULL%1,                          Hervé%Tissot Dupont%NULL%1,                          Stéphane%Honoré%NULL%1,                          Philippe%Colson%NULL%1,                          Eric%Chabrière%NULL%1,                          Bernard%La Scola%NULL%1,                          Jean-Marc%Rolain%NULL%1,                          Philippe%Brouqui%NULL%1,                          Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,                           Zhujun%Cao%NULL%1,                           Mingfeng%Han%NULL%0,                           Zhengyan%Wang%NULL%1,                           Junwen%Chen%NULL%1,                           Wenjin%Sun%NULL%1,                           Yaojie%Wu%NULL%1,                           Wei%Xiao%NULL%0,                           Shengyong%Liu%NULL%1,                           Erzhen%Chen%NULL%1,                           Wei%Chen%NULL%1,                           Xiongbiao%Wang%NULL%1,                           Jiuyong%Yang%NULL%1,                           Jun%Lin%NULL%0,                           Qingxia%Zhao%NULL%1,                           Youqin%Yan%NULL%0,                           Zhibin%Xie%NULL%1,                           Dan%Li%NULL%1,                           Yaofeng%Yang%NULL%1,                           Leshan%Liu%NULL%1,                           Jieming%Qu%NULL%0,                           Guang%Ning%NULL%1,                           Guochao%Shi%NULL%1,                           Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Chen%null%1,                            J.% Hu%null%1,                            Z.% Zhang%null%1,                            S.% Jiang%null%1,                            S.% Han%null%1,                            D.% Yan%null%1,                            R.% Zhuang%null%1,                            B.% Hu%null%1,                            Z. % Zhang%null%1,         Z.%Chen%null%1,         J.% Hu%null%0,         Z.% Zhang%null%1,         S.% Jiang%null%1,         S.% Han%null%1,         D.% Yan%null%1,         R.% Zhuang%null%1,         B.% Hu%null%1,         Z. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Bala%Veenu%coreGivesNoEmail%1,                          Bjerum%Catherine%coreGivesNoEmail%1,                          Chhonker%Yashpal S%coreGivesNoEmail%1,                          Elizah%Arthur%coreGivesNoEmail%1,                          John%Lucy N%coreGivesNoEmail%1,                          King%Christopher L%coreGivesNoEmail%1,                          Likia%Rhoda%coreGivesNoEmail%1,                          Marks%Michael%coreGivesNoEmail%1,                          Martinez%Pere Millat%coreGivesNoEmail%1,                          Mitja%Oriol%coreGivesNoEmail%1,                          Murry%Daryl J%coreGivesNoEmail%1,                          Silus%Linda%coreGivesNoEmail%1,                          Wali%Chilaka%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,                           Jean-Christophe%Lagier%NULL%1,                           Philippe%Parola%NULL%0,                           Van Thuan%Hoang%NULL%1,                           Line%Meddeb%NULL%1,                           Morgane%Mailhe%NULL%1,                           Barbara%Doudier%NULL%1,                           Johan%Courjon%NULL%1,                           Valérie%Giordanengo%NULL%1,                           Vera Esteves%Vieira%NULL%1,                           Hervé%Tissot Dupont%NULL%1,                           Stéphane%Honoré%NULL%1,                           Philippe%Colson%NULL%1,                           Eric%Chabrière%NULL%1,                           Bernard%La Scola%NULL%1,                           Jean-Marc%Rolain%NULL%1,                           Philippe%Brouqui%NULL%1,                           Didier%Raoult%Didier.raoult@gmail.com%0]</t>
   </si>
 </sst>
 </file>
@@ -834,7 +858,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -866,7 +890,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -898,7 +922,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -930,7 +954,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
